--- a/final_rank_30.xlsx
+++ b/final_rank_30.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanbeck/Documents/School/Fall 2025/Capstone/IterLight/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD299FA-90AA-E54C-AFDD-B22D05F48B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="17360" yWindow="920" windowWidth="17040" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,7 +28,7 @@
     <t>rank_group</t>
   </si>
   <si>
-    <t>Reach Capital (ed-tech VC)</t>
+    <t>U.S. Dept. of Education (EIR Program)</t>
   </si>
   <si>
     <t>Owl Ventures</t>
@@ -31,92 +37,92 @@
     <t>Reach Capital</t>
   </si>
   <si>
+    <t>Bill &amp; Melinda Gates Foundation</t>
+  </si>
+  <si>
     <t>500 Global Flagship VC (non-accelerator checks)</t>
   </si>
   <si>
-    <t>U.S. Dept. of Education (EIR Program)</t>
+    <t>Chan Zuckerberg Initiative (CZI)</t>
+  </si>
+  <si>
+    <t>Google for Education</t>
   </si>
   <si>
     <t>National Science Foundation (NSF)</t>
   </si>
   <si>
+    <t>IES SBIR (ED/IES)</t>
+  </si>
+  <si>
+    <t>NSF SBIR (“America’s Seed Fund”)</t>
+  </si>
+  <si>
     <t>Y Combinator</t>
   </si>
   <si>
-    <t>NBA Foundation</t>
-  </si>
-  <si>
-    <t>NSF SBIR (“America’s Seed Fund”)</t>
+    <t>New York Rangers - Garden of Dreams Foundation</t>
   </si>
   <si>
     <t>Berkeley SkyDeck Fund (UC Berkeley)</t>
   </si>
   <si>
-    <t>500 Global (seed/accelerator)</t>
-  </si>
-  <si>
-    <t>IES SBIR (ED/IES)</t>
-  </si>
-  <si>
-    <t>Houston Texans Foundation</t>
-  </si>
-  <si>
-    <t>New England Patriots Foundation</t>
-  </si>
-  <si>
-    <t>New York Knicks Garden of Dreams Foundation</t>
-  </si>
-  <si>
-    <t>New York Giants Foundation</t>
-  </si>
-  <si>
-    <t>Buffalo Bills Foundation</t>
-  </si>
-  <si>
-    <t>Laureus Sport for Good USA</t>
-  </si>
-  <si>
-    <t>University of Florida Foundation</t>
+    <t>New York City FC - City in the Community Foundation</t>
+  </si>
+  <si>
+    <t>Chicago Bulls Charities</t>
+  </si>
+  <si>
+    <t>University of Southern California (USC) Good Neighbors</t>
+  </si>
+  <si>
+    <t>Orlando Magic Youth Foundation (OMYF)</t>
+  </si>
+  <si>
+    <t>Atlanta United Foundation</t>
+  </si>
+  <si>
+    <t>Colorado Avalanche Community Fund</t>
+  </si>
+  <si>
+    <t>Kickstarter</t>
   </si>
   <si>
     <t>Indiegogo</t>
   </si>
   <si>
-    <t>Memphis Grizzlies Foundation</t>
-  </si>
-  <si>
-    <t>Kickstarter</t>
-  </si>
-  <si>
-    <t>Phoenix Suns Charities</t>
-  </si>
-  <si>
-    <t>Minnesota Vikings Foundation</t>
-  </si>
-  <si>
-    <t>Nike Community Impact Fund</t>
-  </si>
-  <si>
-    <t>Seattle Sounders FC RAVE Foundation</t>
-  </si>
-  <si>
-    <t>Green Bay Packers Foundation</t>
-  </si>
-  <si>
-    <t>IterLight</t>
+    <t>Columbus Crew Foundation</t>
+  </si>
+  <si>
+    <t>LA Clippers Foundation</t>
+  </si>
+  <si>
+    <t>Portland Timbers Community Fund</t>
+  </si>
+  <si>
+    <t>National Hockey League (NHL) Foundation U.S.</t>
+  </si>
+  <si>
+    <t>Denver Broncos Foundation</t>
+  </si>
+  <si>
+    <t>Detroit Red Wings Foundation</t>
+  </si>
+  <si>
+    <t>DonorsChoose (technology classroom projects)</t>
+  </si>
+  <si>
+    <t>Tampa Bay Buccaneers Foundation</t>
   </si>
   <si>
     <t>Boston Red Sox Foundation</t>
-  </si>
-  <si>
-    <t>DonorsChoose (technology classroom projects)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +185,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,7 +237,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -257,6 +271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -291,9 +306,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,14 +482,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -489,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -497,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -505,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -513,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -521,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -529,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -537,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -545,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -553,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -561,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -569,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -577,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -585,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -593,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -601,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -609,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -617,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -625,7 +647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -633,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -641,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -649,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -657,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -665,7 +687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -673,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -681,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -689,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -697,7 +719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -705,7 +727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -713,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
